--- a/notebooks/volatility_heatmaps_analysis.xlsx
+++ b/notebooks/volatility_heatmaps_analysis.xlsx
@@ -470,10 +470,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1.334960139962339</v>
+        <v>1.328080045036714</v>
       </c>
       <c r="D2" t="n">
-        <v>2.606513063732561</v>
+        <v>2.605974963604014</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>45351</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1749125910670372</v>
+        <v>0.1749124339365953</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1946049123188329</v>
+        <v>0.1946055737116714</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5758148703188628</v>
+        <v>0.5758152325046955</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         <v>45382</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2129677065376965</v>
+        <v>0.2129675244135687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1950704086889113</v>
+        <v>0.195070725412255</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6409924860268832</v>
+        <v>0.6409927285584487</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>45412</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2540908502326658</v>
+        <v>0.2540906292856764</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1985015952299269</v>
+        <v>0.1985016293865907</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5116445757966389</v>
+        <v>0.5116445965542321</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>45443</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236262702969902</v>
+        <v>0.2362629787358069</v>
       </c>
       <c r="C6" t="n">
-        <v>0.220602379698656</v>
+        <v>0.2206020272563328</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6004862833567268</v>
+        <v>0.6004861008954162</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         <v>45473</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2830446825465103</v>
+        <v>0.2830445715620175</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1609740934027334</v>
+        <v>0.160973939452921</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5545304294137648</v>
+        <v>0.5545299172882407</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         <v>45504</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2388575015914512</v>
+        <v>0.2388574261448524</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2071332992606361</v>
+        <v>0.2071331225892671</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6929727584687135</v>
+        <v>0.6929728104555545</v>
       </c>
     </row>
     <row r="9">
@@ -565,13 +565,13 @@
         <v>45535</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2184787189001529</v>
+        <v>0.2184786203655271</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2216714303075749</v>
+        <v>0.2216714437449377</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7503000736687823</v>
+        <v>0.7503002270572272</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         <v>45565</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2003412681573384</v>
+        <v>0.2003412681573388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1707602691769194</v>
+        <v>0.1707603562333379</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5604537237415196</v>
+        <v>0.5604536569431764</v>
       </c>
     </row>
     <row r="11">
@@ -593,13 +593,13 @@
         <v>45596</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1981326137619211</v>
+        <v>0.1981326137619214</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2217212992353242</v>
+        <v>0.2217213778045251</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3803387818210938</v>
+        <v>0.3803388261523685</v>
       </c>
     </row>
     <row r="12">
@@ -607,13 +607,13 @@
         <v>45626</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1653270548399602</v>
+        <v>0.1653270548399607</v>
       </c>
       <c r="C12" t="n">
-        <v>0.24834781137911</v>
+        <v>0.2483478831751984</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3800470657303987</v>
+        <v>0.3800469680276845</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         <v>45657</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1515434854991652</v>
+        <v>0.1515434854991657</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2008781970862975</v>
+        <v>0.2008781044504554</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3645213431866482</v>
+        <v>0.3645214057449819</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1515434854991652</v>
+        <v>0.1515434854991657</v>
       </c>
       <c r="C2" t="n">
         <v>1.182974089857637</v>
@@ -687,7 +687,7 @@
         <v>0.1224295944024905</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1272879679872015</v>
+        <v>0.1272879426199189</v>
       </c>
     </row>
     <row r="3">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2008781970862963</v>
+        <v>0.2008781044504534</v>
       </c>
       <c r="C3" t="n">
         <v>1.251926672168234</v>
@@ -706,7 +706,7 @@
         <v>0.1465749332018164</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1556417908022529</v>
+        <v>0.1556416941815053</v>
       </c>
     </row>
     <row r="4">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3645213431866461</v>
+        <v>0.3645214057449807</v>
       </c>
       <c r="C4" t="n">
         <v>1.816383204214759</v>
@@ -725,7 +725,7 @@
         <v>0.4739368221080599</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2944830414631823</v>
+        <v>0.2944830976785148</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2389810085907026</v>
+        <v>0.2389809985648666</v>
       </c>
       <c r="C2" t="n">
         <v>1.417094655413543</v>
@@ -826,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2771017488288699</v>
+        <v>-0.2771057934677761</v>
       </c>
       <c r="D2" t="n">
-        <v>0.284486314090179</v>
+        <v>0.2844854146312689</v>
       </c>
     </row>
     <row r="3">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2771017488288699</v>
+        <v>-0.2771057934677761</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1003013663151055</v>
+        <v>0.1003020100084822</v>
       </c>
     </row>
     <row r="4">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.284486314090179</v>
+        <v>0.2844854146312689</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1003013663151055</v>
+        <v>0.1003020100084822</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
